--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_32.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_32.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1063"/>
+  <dimension ref="A1:N1064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.024656295776367</v>
+        <v>0.001051187515258789</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01750302314758301</v>
+        <v>0.0008158683776855469</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0366818904876709</v>
+        <v>0.05849719047546387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(5, 1), (3, 0), (4, 0), (5, 2), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (3, 3), (1, 3), (0, 5), (2, 2), (2, 3), (1, 4), (2, 0), (2, 5), (0, 4), (5, 0), (3, 5), (4, 2), (4, 3), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[5, 1], [3, 0], [4, 0], [5, 2], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [3, 3], [1, 3], [0, 5], [2, 2], [2, 3], [1, 4], [2, 0], [2, 5], [0, 4], [5, 0], [3, 5], [4, 2], [4, 3], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 1), (4, 0), (5, 2), (3, 4), (4, 4), (1, 5), (2, 4), (1, 4), (0, 5), (0, 4), (3, 3), (2, 3), (0, 0), (4, 2), (2, 5), (3, 5), (5, 0), (4, 5), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[5, 1], [4, 1], [4, 0], [5, 2], [3, 4], [4, 4], [1, 5], [2, 4], [1, 4], [0, 5], [0, 4], [3, 3], [2, 3], [0, 0], [4, 2], [2, 5], [3, 5], [5, 0], [4, 5], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 1), (4, 0), (5, 2), (3, 4), (4, 4), (3, 2), (2, 5), (3, 3), (3, 5), (3, 1), (4, 2), (4, 3), (3, 0), (5, 3), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4)]</t>
+          <t>[[5, 1], [4, 1], [4, 0], [5, 2], [3, 4], [4, 4], [3, 2], [2, 5], [3, 3], [3, 5], [3, 1], [4, 2], [4, 3], [3, 0], [5, 3], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4]]</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 1), (4, 0), (5, 2), (3, 1), (4, 4), (3, 2), (4, 5), (4, 2), (5, 5), (3, 0), (3, 3), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5)]</t>
+          <t>[[5, 1], [4, 1], [4, 0], [5, 2], [3, 1], [4, 4], [3, 2], [4, 5], [4, 2], [5, 5], [3, 0], [3, 3], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5]]</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[(5, 1), (3, 0), (4, 0), (5, 2), (3, 1), (4, 2), (4, 5), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3)]</t>
+          <t>[[5, 1], [3, 0], [4, 0], [5, 2], [3, 1], [4, 2], [4, 5], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[(5, 1), (5, 0), (5, 2), (4, 0), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0)]</t>
+          <t>[[5, 1], [5, 0], [5, 2], [4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>[(5, 1), (3, 0), (4, 0), (5, 2), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (4, 1), (5, 0), (3, 1)]</t>
+          <t>[[5, 1], [3, 0], [4, 0], [5, 2], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [4, 1], [5, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (5, 0), (5, 1), (5, 2)]</t>
+          <t>[[4, 0], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [5, 0], [5, 1], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>[(3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2)]</t>
+          <t>[[3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>[(3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (3, 2), (3, 1), (4, 3), (4, 2), (3, 0), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3)]</t>
+          <t>[[3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [3, 0], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3]]</t>
         </is>
       </c>
     </row>
@@ -7705,7 +7705,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>[(2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 5), (3, 4), (3, 5), (3, 3), (3, 2), (3, 1), (4, 3), (4, 2), (3, 0), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3)]</t>
+          <t>[[2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 5], [3, 4], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [3, 0], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3]]</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>[(2, 4), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (1, 5), (2, 2), (3, 2), (3, 0), (3, 1), (3, 3), (2, 0), (2, 5), (2, 1), (0, 5), (4, 0), (4, 3), (4, 2), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (5, 4), (4, 4)]</t>
+          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [1, 5], [2, 2], [3, 2], [3, 0], [3, 1], [3, 3], [2, 0], [2, 5], [2, 1], [0, 5], [4, 0], [4, 3], [4, 2], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [5, 4], [4, 4]]</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (0, 2), (0, 0), (1, 1), (0, 1), (1, 2), (2, 0), (2, 2), (1, 5), (0, 4), (2, 3), (2, 5), (3, 1), (3, 2), (4, 0), (3, 3), (3, 4), (4, 1), (3, 5), (4, 2), (0, 5), (2, 4), (1, 3), (3, 0), (1, 4), (0, 3), (5, 1), (5, 2), (5, 3), (5, 4), (4, 4)]</t>
+          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [1, 5], [0, 4], [2, 3], [2, 5], [3, 1], [3, 2], [4, 0], [3, 3], [3, 4], [4, 1], [3, 5], [4, 2], [0, 5], [2, 4], [1, 3], [3, 0], [1, 4], [0, 3], [5, 1], [5, 2], [5, 3], [5, 4], [4, 4]]</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (0, 0), (0, 3), (1, 3), (0, 5), (2, 1), (2, 0), (2, 2), (2, 4), (2, 3), (2, 5), (3, 4), (3, 1), (3, 2), (4, 0), (3, 3), (3, 5), (4, 1), (4, 4), (4, 2), (4, 5), (4, 3), (5, 3), (3, 0), (5, 4), (1, 4), (1, 5), (0, 4), (1, 0), (1, 1), (1, 2)]</t>
+          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [1, 3], [0, 5], [2, 1], [2, 0], [2, 2], [2, 4], [2, 3], [2, 5], [3, 4], [3, 1], [3, 2], [4, 0], [3, 3], [3, 5], [4, 1], [4, 4], [4, 2], [4, 5], [4, 3], [5, 3], [3, 0], [5, 4], [1, 4], [1, 5], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -9641,110 +9641,120 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1059" t="n">
-        <v>155</v>
+        <v>0.990307993052633</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1060" t="n">
-        <v>880</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1061" t="n">
-        <v>14</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1062" t="n">
-        <v>2.164884805679321</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>0.1687099933624268</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1063" t="inlineStr">
+      <c r="B1064" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1063" t="inlineStr">
+      <c r="C1064" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1063" t="inlineStr">
+      <c r="D1064" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1063" t="inlineStr">
+      <c r="E1064" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1063" t="inlineStr">
+      <c r="F1064" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1063" t="inlineStr">
+      <c r="G1064" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
+      <c r="H1064" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1063" t="inlineStr">
+      <c r="I1064" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1063" t="inlineStr">
+      <c r="J1064" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1063" t="inlineStr">
+      <c r="K1064" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1063" t="inlineStr">
+      <c r="L1064" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1063" t="inlineStr">
+      <c r="M1064" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1063" t="inlineStr">
+      <c r="N1064" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
